--- a/数据整理/stocks/A股/创业板/300803-指南针.xlsx
+++ b/数据整理/stocks/A股/创业板/300803-指南针.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>159851</t>
-  </si>
-  <si>
-    <t>华宝中证金融科技主题ETF</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>97.80</t>
-  </si>
-  <si>
-    <t>2.85</t>
-  </si>
-  <si>
-    <t>0.0165</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300803-指南针.xlsx
+++ b/数据整理/stocks/A股/创业板/300803-指南针.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300803-指南针.xlsx
+++ b/数据整理/stocks/A股/创业板/300803-指南针.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -640,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,17 +652,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -671,14 +692,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -687,13 +782,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300803-指南针.xlsx
+++ b/数据整理/stocks/A股/创业板/300803-指南针.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -735,7 +736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -746,17 +747,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -766,14 +787,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>110002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达策略成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3706</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -782,14 +825,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>112002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达策略成长二号混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3237</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -798,13 +863,211 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300803-指南针.xlsx
+++ b/数据整理/stocks/A股/创业板/300803-指南针.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.82</v>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4213</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1029,14 +1072,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.03</v>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3509</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1045,14 +1110,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04</v>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1061,13 +1148,1517 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013331</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2036</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.34</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1550</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1278</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008961</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华商科技创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0935</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>202019</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方策略优化混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519652</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005459</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>75.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005460</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河嘉谊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>44.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001939</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>97.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519646</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - I</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004250</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银河量化优选混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>73.14</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002075</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>光大保德信睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.58</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015245</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南华丰汇混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519653</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银河鑫利灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>24.08</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300803-指南针.xlsx
+++ b/数据整理/stocks/A股/创业板/300803-指南针.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D3" t="n">
-        <v>0.82</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -566,6 +583,402 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004895</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商鑫安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516860</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006942</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006943</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化明选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.61</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2139,7 +2552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2378,100 +2791,6 @@
       </c>
       <c r="H6" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>516100</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0257</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2506,7 +2825,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2546,26 +2865,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.66</t>
+          <t>98.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0409</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2574,6 +2893,100 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300803-指南针.xlsx
+++ b/数据整理/stocks/A股/创业板/300803-指南针.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.28</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>2.77</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="D4" t="n">
-        <v>0.82</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -583,6 +600,632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6695</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004702</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6342</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4520</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007346</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科技创新混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4516</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3214</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013500</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方金融主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013610</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信保诚前瞻优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2288</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011287</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源聚慧三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159851</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516860</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时中证金融科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -978,7 +1621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2552,7 +3195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2791,100 +3434,6 @@
       </c>
       <c r="H6" t="n">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>516100</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.68</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0257</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2919,7 +3468,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2959,26 +3508,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.66</t>
+          <t>98.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0409</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2987,6 +3536,100 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516100</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证金融科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
